--- a/menu_files/admin_weekly_orderSheet_St_Laurences.xlsx
+++ b/menu_files/admin_weekly_orderSheet_St_Laurences.xlsx
@@ -4084,7 +4084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4118,13 +4118,31 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Items</t>
+          <t>Menu Item</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>4174</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>seángordon</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4142,7 +4160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4157,7 +4175,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Monday of St Laurences 13 (Primary)</t>
+          <t>Day Total for Monday (St Laurences 13)</t>
         </is>
       </c>
     </row>
@@ -4176,11 +4194,251 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Chicken Caesar Wrap</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Chicken and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Chicken, cheese and mayonnaise panini</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Fish fingers with mashed potatoes and beans</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Panini with tuna mayonnaise, sweetcorn and onion</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Pasta Salad Box</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Plain Pasta Pot</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Roast chicken lunch</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Roast chicken lunch NO GRAVY</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Sausages with mashed potatoes and beans</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Sweet chilli chicken wrap</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Toasted Cheese Panini</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Toasted Ham Panini</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Traditional Soup with bread (Gluten Free)</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
           <t>Traditional Vegetable Soup</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>1</v>
+      <c r="B26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -12202,7 +12460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12236,13 +12494,31 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Items</t>
+          <t>Menu Item</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>4175</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>seángordon</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12260,7 +12536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12275,7 +12551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Tuesday of St Laurences 13 (Primary)</t>
+          <t>Day Total for Tuesday (St Laurences 13)</t>
         </is>
       </c>
     </row>
@@ -12294,11 +12570,241 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Chicken Caesar Wrap</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Chicken and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Chicken, cheese and mayonnaise panini</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Fish fingers with mashed potatoes and beans</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Ham Salad with Brown Bread</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Plain Pasta Pot</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Roast chicken lunch</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Roast chicken lunch NO GRAVY</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Sausages with mashed potatoes and beans</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Sweet chilli chicken wrap</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Toasted Cheese Panini</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Toasted Ham Panini</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
           <t>Traditional Vegetable Soup</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>1</v>
+      <c r="B25" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -19924,7 +20430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19958,13 +20464,31 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Items</t>
+          <t>Menu Item</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>4176</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>seángordon</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -19982,7 +20506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19997,7 +20521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Wednesday of St Laurences 13 (Primary)</t>
+          <t>Day Total for Wednesday (St Laurences 13)</t>
         </is>
       </c>
     </row>
@@ -20016,11 +20540,271 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Chicken Caesar Wrap</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Chicken and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Chicken, cheese and mayonnaise panini</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Fish fingers with mashed potatoes and beans</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Ham Salad with Brown Bread</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Meat free salad Box</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Panini with tuna mayonnaise, sweetcorn and onion</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Pasta Salad Box</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Plain Pasta Pot</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Roast chicken lunch</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Roast chicken lunch NO GRAVY</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Sausages with mashed potatoes and beans</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Sweet chilli chicken wrap</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Toasted Cheese Panini</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Toasted Ham Panini</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Traditional Soup with bread (Gluten Free)</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
           <t>Traditional Vegetable Soup</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>1</v>
+      <c r="B28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -27613,7 +28397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27647,13 +28431,45 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Items</t>
+          <t>Menu Item</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>4177</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>seángordon</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>5280</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Asian Chicken Wrap</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -27671,7 +28487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27686,7 +28502,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Thursday of St Laurences 13 (Primary)</t>
+          <t>Day Total for Thursday (St Laurences 13)</t>
         </is>
       </c>
     </row>
@@ -27715,11 +28531,241 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
+          <t>Chicken Caesar Salad with Homemade Brown Bread</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Chicken and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Chicken, cheese and mayonnaise panini</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Fish fingers with mashed potatoes and beans</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Panini with tuna mayonnaise, sweetcorn and onion</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Plain Pasta Pot</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Roast chicken lunch</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Roast chicken lunch NO GRAVY</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Sausages with mashed potatoes and beans</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Sweet chilli chicken wrap</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Toasted Cheese Panini</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Toasted Ham Panini</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Traditional Soup with bread (Gluten Free)</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
           <t>Traditional Vegetable Soup</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>1</v>
+      <c r="B26" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -34069,7 +35115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34103,13 +35149,31 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Menu Items</t>
+          <t>Menu Item</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>4178</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>seángordon</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Chicken, cheese and mayonnaise panini</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -34491,7 +35555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34506,7 +35570,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Chef Day Total for Friday of St Laurences 13 (Primary)</t>
+          <t>Day Total for Friday (St Laurences 13)</t>
         </is>
       </c>
     </row>
@@ -34525,11 +35589,241 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Chicken Curry Madras</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Chicken and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Chicken and Chorizo Pasta Bake</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
           <t>Chicken, cheese and mayonnaise panini</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>1</v>
+      <c r="B6" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Fish fingers with mashed potatoes and beans</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Fish fingers, mashed potatoes and vegetables</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Ham Salad with Brown Bread</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Meat free salad Box</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Meatballs in a Spicy Tomato Sauce, with a creamy mash and seasonal vegetables</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Panini with tuna mayonnaise, sweetcorn and onion</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Pasta Salad Box</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Pasta with Tomato and basil sauce</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Plain Pasta Pot</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Roast chicken lunch</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Roast chicken lunch NO GRAVY</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Sausages with Creamed Potato, Vegetables and Gravy</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Sausages with mashed potatoes and beans</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Sausages, creamed potatoes, vegetables with NO GRAVY</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Sweet chilli chicken wrap</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Tex Mex Nachos</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Toasted Cheese Panini</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Toasted Ham Panini</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Toasted Ham and Cheese Panini</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Traditional Vegetable Soup With freshly baked roll</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
